--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33407.83422384706</v>
+        <v>6648159.010545564</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33407.83422384706</v>
+        <v>6648159.010545564</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11940.53994021391</v>
+        <v>719595.4852007708</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11940.53994021391</v>
+        <v>719595.4852007708</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113178571.368289</v>
+        <v>45995227.03997812</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10452.90993308317</v>
+        <v>1140988.449918091</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19529.95637173138</v>
+        <v>2054036.804159221</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28607.00281037958</v>
+        <v>2967085.158400353</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38158.86844561224</v>
+        <v>3849756.730024105</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47710.73408084488</v>
+        <v>4732428.301647857</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56897.27515936379</v>
+        <v>5645197.421991392</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66083.81623788267</v>
+        <v>6557966.542334927</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75270.35731640153</v>
+        <v>7470735.662678462</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84645.8139674705</v>
+        <v>8351618.416396628</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94053.34334581184</v>
+        <v>9238883.642842108</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103299.8317534876</v>
+        <v>10141999.22814558</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112530.6401611633</v>
+        <v>11041994.49344904</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121761.4485688391</v>
+        <v>11941989.7587525</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131239.7861285913</v>
+        <v>12826855.1623055</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140718.1236883439</v>
+        <v>13711720.56585845</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27055,10 +27055,10 @@
         <v>73.00000000022999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>215</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
